--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BA0372-8CBE-4132-97F4-E872FBFEB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5C8DE3-EA6D-4B99-95C5-A8FBE9789552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
   <si>
     <t>10mm BPA Data Collection</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>Pressure at 200kpa</t>
+  </si>
+  <si>
+    <t>Kinked Length = 0.4cm</t>
+  </si>
+  <si>
+    <t>End to end length =0.4-0.5</t>
   </si>
 </sst>
 </file>
@@ -486,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -802,7 +808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>2</v>
       </c>
@@ -822,7 +828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>3</v>
       </c>
@@ -839,7 +845,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>4</v>
       </c>
@@ -856,7 +862,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>5</v>
       </c>
@@ -873,7 +879,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>6</v>
       </c>
@@ -890,7 +896,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>7</v>
       </c>
@@ -907,7 +913,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>8</v>
       </c>
@@ -924,7 +930,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>9</v>
       </c>
@@ -941,7 +947,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>10</v>
       </c>
@@ -955,6 +961,223 @@
         <v>50</v>
       </c>
       <c r="F26" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>10</v>
+      </c>
+      <c r="D31" s="5">
+        <v>500</v>
+      </c>
+      <c r="E31" s="5">
+        <v>30</v>
+      </c>
+      <c r="F31" s="5">
+        <v>500</v>
+      </c>
+      <c r="G31" s="10"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5">
+        <v>500</v>
+      </c>
+      <c r="E32" s="5">
+        <v>30</v>
+      </c>
+      <c r="F32" s="5">
+        <v>500</v>
+      </c>
+      <c r="G32" s="10"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5">
+        <v>500</v>
+      </c>
+      <c r="E33" s="5">
+        <v>40</v>
+      </c>
+      <c r="F33" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>500</v>
+      </c>
+      <c r="E34" s="5">
+        <v>40</v>
+      </c>
+      <c r="F34" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>500</v>
+      </c>
+      <c r="E35" s="5">
+        <v>60</v>
+      </c>
+      <c r="F35" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>500</v>
+      </c>
+      <c r="E36" s="5">
+        <v>60</v>
+      </c>
+      <c r="F36" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="5">
+        <v>500</v>
+      </c>
+      <c r="E37" s="5">
+        <v>40</v>
+      </c>
+      <c r="F37" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" s="5">
+        <v>5</v>
+      </c>
+      <c r="D38" s="5">
+        <v>500</v>
+      </c>
+      <c r="E38" s="5">
+        <v>40</v>
+      </c>
+      <c r="F38" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>9</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
+      <c r="D39" s="5">
+        <v>500</v>
+      </c>
+      <c r="E39" s="5">
+        <v>50</v>
+      </c>
+      <c r="F39" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" s="8">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8">
+        <v>500</v>
+      </c>
+      <c r="E40" s="8">
+        <v>50</v>
+      </c>
+      <c r="F40" s="8">
         <v>500</v>
       </c>
     </row>

--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5C8DE3-EA6D-4B99-95C5-A8FBE9789552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09CFBA1-62C2-46F5-9CFE-B42A26CAC97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dec8 - 10mm Unkinked" sheetId="1" r:id="rId1"/>
+    <sheet name="Dec16-10mmKinked" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -492,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G40" sqref="A14:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,74 +744,290 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7DEB1B-4EB0-4CB2-80F8-B0D1F00A8160}">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5">
+        <v>500</v>
+      </c>
+      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
+        <v>500</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5">
+        <v>500</v>
+      </c>
+      <c r="E5" s="5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5">
+        <v>500</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5">
+        <v>500</v>
+      </c>
+      <c r="E6" s="5">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5">
+        <v>500</v>
+      </c>
+      <c r="E7" s="5">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5">
+        <v>500</v>
+      </c>
+      <c r="E8" s="5">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5">
+        <v>500</v>
+      </c>
+      <c r="E9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>500</v>
+      </c>
+      <c r="E10" s="5">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5">
+        <v>500</v>
+      </c>
+      <c r="E11" s="5">
+        <v>40</v>
+      </c>
+      <c r="F11" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>500</v>
+      </c>
+      <c r="E12" s="5">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>500</v>
+      </c>
+      <c r="E13" s="8">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8">
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>7</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>13</v>
       </c>
-      <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5">
-        <v>500</v>
-      </c>
-      <c r="E17" s="5">
-        <v>30</v>
-      </c>
-      <c r="F17" s="5">
-        <v>500</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>16</v>
+      <c r="G17" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
         <v>10</v>
@@ -824,13 +1041,11 @@
       <c r="F18" s="5">
         <v>500</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="5">
         <v>10</v>
@@ -839,15 +1054,16 @@
         <v>500</v>
       </c>
       <c r="E19" s="5">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F19" s="5">
         <v>500</v>
       </c>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="5">
         <v>10</v>
@@ -864,7 +1080,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="5">
         <v>10</v>
@@ -873,7 +1089,7 @@
         <v>500</v>
       </c>
       <c r="E21" s="5">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F21" s="5">
         <v>500</v>
@@ -881,7 +1097,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="5">
         <v>10</v>
@@ -898,16 +1114,16 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D23" s="5">
         <v>500</v>
       </c>
       <c r="E23" s="5">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F23" s="5">
         <v>500</v>
@@ -915,7 +1131,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="5">
         <v>5</v>
@@ -932,252 +1148,52 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25" s="5">
+        <v>5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>500</v>
+      </c>
+      <c r="E25" s="5">
+        <v>40</v>
+      </c>
+      <c r="F25" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>500</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>500</v>
+      </c>
+      <c r="E26" s="5">
         <v>50</v>
       </c>
-      <c r="F25" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" s="8">
-        <v>5</v>
-      </c>
-      <c r="D26" s="8">
-        <v>500</v>
-      </c>
-      <c r="E26" s="8">
+      <c r="F26" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8">
+        <v>5</v>
+      </c>
+      <c r="D27" s="8">
+        <v>500</v>
+      </c>
+      <c r="E27" s="8">
         <v>50</v>
       </c>
-      <c r="F26" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5">
-        <v>10</v>
-      </c>
-      <c r="D31" s="5">
-        <v>500</v>
-      </c>
-      <c r="E31" s="5">
-        <v>30</v>
-      </c>
-      <c r="F31" s="5">
-        <v>500</v>
-      </c>
-      <c r="G31" s="10"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" s="5">
-        <v>10</v>
-      </c>
-      <c r="D32" s="5">
-        <v>500</v>
-      </c>
-      <c r="E32" s="5">
-        <v>30</v>
-      </c>
-      <c r="F32" s="5">
-        <v>500</v>
-      </c>
-      <c r="G32" s="10"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>3</v>
-      </c>
-      <c r="C33" s="5">
-        <v>10</v>
-      </c>
-      <c r="D33" s="5">
-        <v>500</v>
-      </c>
-      <c r="E33" s="5">
-        <v>40</v>
-      </c>
-      <c r="F33" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34">
-        <v>4</v>
-      </c>
-      <c r="C34" s="5">
-        <v>10</v>
-      </c>
-      <c r="D34" s="5">
-        <v>500</v>
-      </c>
-      <c r="E34" s="5">
-        <v>40</v>
-      </c>
-      <c r="F34" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35" s="5">
-        <v>10</v>
-      </c>
-      <c r="D35" s="5">
-        <v>500</v>
-      </c>
-      <c r="E35" s="5">
-        <v>60</v>
-      </c>
-      <c r="F35" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36">
-        <v>6</v>
-      </c>
-      <c r="C36" s="5">
-        <v>10</v>
-      </c>
-      <c r="D36" s="5">
-        <v>500</v>
-      </c>
-      <c r="E36" s="5">
-        <v>60</v>
-      </c>
-      <c r="F36" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>7</v>
-      </c>
-      <c r="C37" s="5">
-        <v>5</v>
-      </c>
-      <c r="D37" s="5">
-        <v>500</v>
-      </c>
-      <c r="E37" s="5">
-        <v>40</v>
-      </c>
-      <c r="F37" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>8</v>
-      </c>
-      <c r="C38" s="5">
-        <v>5</v>
-      </c>
-      <c r="D38" s="5">
-        <v>500</v>
-      </c>
-      <c r="E38" s="5">
-        <v>40</v>
-      </c>
-      <c r="F38" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>9</v>
-      </c>
-      <c r="C39" s="5">
-        <v>5</v>
-      </c>
-      <c r="D39" s="5">
-        <v>500</v>
-      </c>
-      <c r="E39" s="5">
-        <v>50</v>
-      </c>
-      <c r="F39" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40">
-        <v>10</v>
-      </c>
-      <c r="C40" s="8">
-        <v>5</v>
-      </c>
-      <c r="D40" s="8">
-        <v>500</v>
-      </c>
-      <c r="E40" s="8">
-        <v>50</v>
-      </c>
-      <c r="F40" s="8">
+      <c r="F27" s="8">
         <v>500</v>
       </c>
     </row>

--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09CFBA1-62C2-46F5-9CFE-B42A26CAC97C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D6A4B-9DD3-45B0-B29F-947CA6FC0F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24390" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec8 - 10mm Unkinked" sheetId="1" r:id="rId1"/>
     <sheet name="Dec16-10mmKinked" sheetId="2" r:id="rId2"/>
+    <sheet name="Dec21-8mmkink" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>10mm BPA Data Collection</t>
   </si>
@@ -86,6 +87,9 @@
   </si>
   <si>
     <t>End to end length =0.4-0.5</t>
+  </si>
+  <si>
+    <t>8mm kinked</t>
   </si>
 </sst>
 </file>
@@ -753,7 +757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7DEB1B-4EB0-4CB2-80F8-B0D1F00A8160}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
@@ -1200,4 +1204,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E11394F-5D41-4215-A116-20E3A1062556}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790D6A4B-9DD3-45B0-B29F-947CA6FC0F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E239F4C-B798-48E2-8468-31722D339CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24390" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dec8 - 10mm Unkinked" sheetId="1" r:id="rId1"/>
-    <sheet name="Dec16-10mmKinked" sheetId="2" r:id="rId2"/>
-    <sheet name="Dec21-8mmkink" sheetId="3" r:id="rId3"/>
+    <sheet name="Dec8 - 10mm13cm" sheetId="1" r:id="rId1"/>
+    <sheet name="10mm Data Collection" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>10mm BPA Data Collection</t>
   </si>
@@ -89,7 +88,76 @@
     <t>End to end length =0.4-0.5</t>
   </si>
   <si>
-    <t>8mm kinked</t>
+    <t>Dec 16 - 10mm Kinked</t>
+  </si>
+  <si>
+    <t>Diameter</t>
+  </si>
+  <si>
+    <t>Kink/unkink</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Dec 8 - Dec 16</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>Cut Length</t>
+  </si>
+  <si>
+    <t>13.5cm</t>
+  </si>
+  <si>
+    <t>Clamp End to end</t>
+  </si>
+  <si>
+    <t>Force Output Type</t>
+  </si>
+  <si>
+    <t>Maximum Contraction length (cm)</t>
+  </si>
+  <si>
+    <t>Max Contraction (cm)</t>
+  </si>
+  <si>
+    <t>Unkink</t>
+  </si>
+  <si>
+    <t>4mm</t>
+  </si>
+  <si>
+    <t>8mm</t>
+  </si>
+  <si>
+    <t>12mm</t>
+  </si>
+  <si>
+    <t>23cm</t>
+  </si>
+  <si>
+    <t>14mm</t>
+  </si>
+  <si>
+    <t>30mm</t>
+  </si>
+  <si>
+    <t>Raw</t>
+  </si>
+  <si>
+    <t>Eq</t>
+  </si>
+  <si>
+    <t>EQ</t>
+  </si>
+  <si>
+    <t>30cm</t>
+  </si>
+  <si>
+    <t>Switched pin</t>
   </si>
 </sst>
 </file>
@@ -113,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -201,11 +269,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -217,6 +322,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G40" sqref="A14:G40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,478 +859,825 @@
         <v>11</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="5">
+        <v>10</v>
+      </c>
+      <c r="D20" s="5">
+        <v>500</v>
+      </c>
+      <c r="E20" s="5">
+        <v>30</v>
+      </c>
+      <c r="F20" s="5">
+        <v>500</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5">
+        <v>500</v>
+      </c>
+      <c r="E21" s="5">
+        <v>30</v>
+      </c>
+      <c r="F21" s="5">
+        <v>500</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>10</v>
+      </c>
+      <c r="D22" s="5">
+        <v>500</v>
+      </c>
+      <c r="E22" s="5">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>10</v>
+      </c>
+      <c r="D23" s="5">
+        <v>500</v>
+      </c>
+      <c r="E23" s="5">
+        <v>40</v>
+      </c>
+      <c r="F23" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>500</v>
+      </c>
+      <c r="E24" s="5">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5">
+        <v>10</v>
+      </c>
+      <c r="D25" s="5">
+        <v>500</v>
+      </c>
+      <c r="E25" s="5">
+        <v>60</v>
+      </c>
+      <c r="F25" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>500</v>
+      </c>
+      <c r="E26" s="5">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" s="5">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>500</v>
+      </c>
+      <c r="E27" s="5">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="5">
+        <v>500</v>
+      </c>
+      <c r="E28" s="5">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" s="8">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8">
+        <v>500</v>
+      </c>
+      <c r="E29" s="8">
+        <v>50</v>
+      </c>
+      <c r="F29" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="5">
+        <v>10</v>
+      </c>
+      <c r="D34" s="5">
+        <v>500</v>
+      </c>
+      <c r="E34" s="5">
+        <v>30</v>
+      </c>
+      <c r="F34" s="5">
+        <v>500</v>
+      </c>
+      <c r="G34" s="10"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5">
+        <v>500</v>
+      </c>
+      <c r="E35" s="5">
+        <v>30</v>
+      </c>
+      <c r="F35" s="5">
+        <v>500</v>
+      </c>
+      <c r="G35" s="10"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10</v>
+      </c>
+      <c r="D36" s="5">
+        <v>500</v>
+      </c>
+      <c r="E36" s="5">
+        <v>40</v>
+      </c>
+      <c r="F36" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>500</v>
+      </c>
+      <c r="E37" s="5">
+        <v>40</v>
+      </c>
+      <c r="F37" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>10</v>
+      </c>
+      <c r="D38" s="5">
+        <v>500</v>
+      </c>
+      <c r="E38" s="5">
+        <v>60</v>
+      </c>
+      <c r="F38" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5">
+        <v>500</v>
+      </c>
+      <c r="E39" s="5">
+        <v>60</v>
+      </c>
+      <c r="F39" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5</v>
+      </c>
+      <c r="D40" s="5">
+        <v>500</v>
+      </c>
+      <c r="E40" s="5">
+        <v>40</v>
+      </c>
+      <c r="F40" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>8</v>
+      </c>
+      <c r="C41" s="5">
+        <v>5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>500</v>
+      </c>
+      <c r="E41" s="5">
+        <v>40</v>
+      </c>
+      <c r="F41" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5">
+        <v>5</v>
+      </c>
+      <c r="D42" s="5">
+        <v>500</v>
+      </c>
+      <c r="E42" s="5">
+        <v>50</v>
+      </c>
+      <c r="F42" s="5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" s="8">
+        <v>5</v>
+      </c>
+      <c r="D43" s="8">
+        <v>500</v>
+      </c>
+      <c r="E43" s="8">
+        <v>50</v>
+      </c>
+      <c r="F43" s="8">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7DEB1B-4EB0-4CB2-80F8-B0D1F00A8160}">
-  <dimension ref="A1:G27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769A8FCF-F3D2-4A1E-8273-1649DF2EF169}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>44564</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>22</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>33</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>44571</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="D13" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>17</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>28</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8">
+        <v>41</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="E17" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>500</v>
-      </c>
-      <c r="E4" s="5">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5">
-        <v>500</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5">
-        <v>500</v>
-      </c>
-      <c r="E5" s="5">
-        <v>30</v>
-      </c>
-      <c r="F5" s="5">
-        <v>500</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5">
-        <v>500</v>
-      </c>
-      <c r="E6" s="5">
-        <v>40</v>
-      </c>
-      <c r="F6" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5">
-        <v>500</v>
-      </c>
-      <c r="E7" s="5">
-        <v>40</v>
-      </c>
-      <c r="F7" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5">
-        <v>500</v>
-      </c>
-      <c r="E8" s="5">
-        <v>60</v>
-      </c>
-      <c r="F8" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5">
-        <v>500</v>
-      </c>
-      <c r="E9" s="5">
-        <v>60</v>
-      </c>
-      <c r="F9" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="5">
-        <v>5</v>
-      </c>
-      <c r="D10" s="5">
-        <v>500</v>
-      </c>
-      <c r="E10" s="5">
-        <v>40</v>
-      </c>
-      <c r="F10" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>500</v>
-      </c>
-      <c r="E11" s="5">
-        <v>40</v>
-      </c>
-      <c r="F11" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5">
-        <v>500</v>
-      </c>
-      <c r="E12" s="5">
-        <v>50</v>
-      </c>
-      <c r="F12" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="8">
-        <v>5</v>
-      </c>
-      <c r="D13" s="8">
-        <v>500</v>
-      </c>
-      <c r="E13" s="8">
-        <v>50</v>
-      </c>
-      <c r="F13" s="8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5">
-        <v>500</v>
-      </c>
-      <c r="E18" s="5">
-        <v>30</v>
-      </c>
-      <c r="F18" s="5">
-        <v>500</v>
-      </c>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5">
-        <v>500</v>
-      </c>
-      <c r="E19" s="5">
-        <v>30</v>
-      </c>
-      <c r="F19" s="5">
-        <v>500</v>
-      </c>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>3</v>
-      </c>
-      <c r="C20" s="5">
-        <v>10</v>
-      </c>
-      <c r="D20" s="5">
-        <v>500</v>
-      </c>
-      <c r="E20" s="5">
-        <v>40</v>
-      </c>
-      <c r="F20" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5">
-        <v>10</v>
-      </c>
-      <c r="D21" s="5">
-        <v>500</v>
-      </c>
-      <c r="E21" s="5">
-        <v>40</v>
-      </c>
-      <c r="F21" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>10</v>
-      </c>
-      <c r="D22" s="5">
-        <v>500</v>
-      </c>
-      <c r="E22" s="5">
-        <v>60</v>
-      </c>
-      <c r="F22" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5">
-        <v>10</v>
-      </c>
-      <c r="D23" s="5">
-        <v>500</v>
-      </c>
-      <c r="E23" s="5">
-        <v>60</v>
-      </c>
-      <c r="F23" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>7</v>
-      </c>
-      <c r="C24" s="5">
-        <v>5</v>
-      </c>
-      <c r="D24" s="5">
-        <v>500</v>
-      </c>
-      <c r="E24" s="5">
-        <v>40</v>
-      </c>
-      <c r="F24" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5">
-        <v>5</v>
-      </c>
-      <c r="D25" s="5">
-        <v>500</v>
-      </c>
-      <c r="E25" s="5">
-        <v>40</v>
-      </c>
-      <c r="F25" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>9</v>
-      </c>
-      <c r="C26" s="5">
-        <v>5</v>
-      </c>
-      <c r="D26" s="5">
-        <v>500</v>
-      </c>
-      <c r="E26" s="5">
-        <v>50</v>
-      </c>
-      <c r="F26" s="5">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" s="8">
-        <v>5</v>
-      </c>
-      <c r="D27" s="8">
-        <v>500</v>
-      </c>
-      <c r="E27" s="8">
-        <v>50</v>
-      </c>
-      <c r="F27" s="8">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E11394F-5D41-4215-A116-20E3A1062556}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8">
+        <v>31</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intel\Documents\GitHub\Muscle_Sensory\DataCollection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Documents\GitHub\Muscle-Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E239F4C-B798-48E2-8468-31722D339CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E036B8FE-D9B9-45E4-8FD8-613CADD3E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12576" yWindow="264" windowWidth="17280" windowHeight="9384" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec8 - 10mm13cm" sheetId="1" r:id="rId1"/>
     <sheet name="10mm Data Collection" sheetId="2" r:id="rId2"/>
+    <sheet name="20mm Data Collection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>10mm BPA Data Collection</t>
   </si>
@@ -158,6 +159,15 @@
   </si>
   <si>
     <t>Switched pin</t>
+  </si>
+  <si>
+    <t>20mm</t>
+  </si>
+  <si>
+    <t>Kink/unkink(mm)</t>
+  </si>
+  <si>
+    <t>Pressure Output Type</t>
   </si>
 </sst>
 </file>
@@ -310,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -328,6 +338,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,20 +625,20 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -642,7 +653,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -665,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="5">
         <v>1</v>
@@ -684,7 +695,7 @@
       </c>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="5">
         <v>2</v>
@@ -703,7 +714,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="5">
         <v>3</v>
@@ -722,7 +733,7 @@
       </c>
       <c r="G6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="5">
         <v>4</v>
@@ -741,7 +752,7 @@
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="5">
         <v>5</v>
@@ -760,7 +771,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="5">
         <v>6</v>
@@ -779,7 +790,7 @@
       </c>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="5">
         <v>7</v>
@@ -798,7 +809,7 @@
       </c>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="5">
         <v>8</v>
@@ -817,7 +828,7 @@
       </c>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="5">
         <v>9</v>
@@ -838,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>10</v>
@@ -859,17 +870,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -886,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
@@ -909,7 +920,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1</v>
       </c>
@@ -929,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>2</v>
       </c>
@@ -949,7 +960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>3</v>
       </c>
@@ -966,7 +977,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>4</v>
       </c>
@@ -983,7 +994,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5</v>
       </c>
@@ -1000,7 +1011,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>6</v>
       </c>
@@ -1017,7 +1028,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>7</v>
       </c>
@@ -1034,7 +1045,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>8</v>
       </c>
@@ -1051,7 +1062,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>9</v>
       </c>
@@ -1068,7 +1079,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29">
         <v>10</v>
       </c>
@@ -1085,12 +1096,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +1118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>1</v>
       </c>
@@ -1148,7 +1159,7 @@
       </c>
       <c r="G34" s="10"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>2</v>
       </c>
@@ -1166,7 +1177,7 @@
       </c>
       <c r="G35" s="10"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>3</v>
       </c>
@@ -1183,7 +1194,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>4</v>
       </c>
@@ -1200,7 +1211,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>5</v>
       </c>
@@ -1217,7 +1228,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>6</v>
       </c>
@@ -1234,7 +1245,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>7</v>
       </c>
@@ -1251,7 +1262,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>8</v>
       </c>
@@ -1268,7 +1279,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>9</v>
       </c>
@@ -1285,7 +1296,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43">
         <v>10</v>
       </c>
@@ -1311,20 +1322,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769A8FCF-F3D2-4A1E-8273-1649DF2EF169}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -1351,7 +1362,7 @@
       </c>
       <c r="I1" s="13"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1389,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1393,7 +1404,7 @@
       </c>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1408,7 +1419,7 @@
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1423,7 +1434,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>44564</v>
       </c>
@@ -1450,7 +1461,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1464,7 +1475,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -1478,7 +1489,7 @@
       </c>
       <c r="I8" s="9"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -1502,7 +1513,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1516,7 +1527,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1530,7 +1541,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -1544,7 +1555,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>44571</v>
       </c>
@@ -1571,7 +1582,7 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1585,7 +1596,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1599,7 +1610,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -1613,7 +1624,7 @@
       </c>
       <c r="I16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1637,7 +1648,7 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1651,7 +1662,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1665,7 +1676,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1682,4 +1693,264 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64191C26-4904-4A59-AB7C-C2CD2B730722}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>44580</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
+        <v>25.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
+        <v>19</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>44580</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="10">
+        <v>14</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="10">
+        <v>23</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8">
+        <v>34</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="5">
+        <v>15</v>
+      </c>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
+      <c r="E10" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="10">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="14">
+        <v>20</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Documents\GitHub\Muscle-Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E036B8FE-D9B9-45E4-8FD8-613CADD3E5AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB602D44-E200-4C57-9BCD-F03F1B1685E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12576" yWindow="264" windowWidth="17280" windowHeight="9384" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec8 - 10mm13cm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>10mm BPA Data Collection</t>
   </si>
@@ -168,13 +168,190 @@
   </si>
   <si>
     <t>Pressure Output Type</t>
+  </si>
+  <si>
+    <r>
+      <t>Data_10mm_13cm_Unkinked_Test9 = csvread(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA04F9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'10mm_13cm_Unkinked_Test9.csv'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>Force_10mm_13cm_Unkinked_Test9_Wrong = Data_10mm_13cm_Unkinked_Test9(:,1);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force_10mm_13cm_Unkinked_Test9_A0=((Force_10mm_13cm_Unkinked_Test9_Wrong/4.45) +30.882)/1.6475; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%convert back to Arduino Output</t>
+    </r>
+  </si>
+  <si>
+    <t>Force_10mm_13cm_Unkinked_Test9_Offset = Force_10mm_13cm_Unkinked_Test9_A0 - min(Force_10mm_13cm_Unkinked_Test9_A0);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force_10mm_13cm_Unkinked_Test9 = (((Force_10mm_13cm_Unkinked_Test9_Offset)*0.1535)-1.963)*4.45; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%corrected Force output (N)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pressure_10mm_13cm_Unkinked_Test9 =Data_10mm_13cm_Unkinked_Test9(:,2);</t>
+  </si>
+  <si>
+    <t>Time_10mm_13cm_Unkinked_Test9 = Data_10mm_13cm_Unkinked_Test9(:,3);</t>
+  </si>
+  <si>
+    <t>Conversion Code</t>
+  </si>
+  <si>
+    <t>Force_10mm_23cm_Unkinked_Test9_Wrong = Data_10mm_23cm_Unkinked_Test9(:,1);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force_10mm_23cm_Unkinked_Test9_A0=((Force_10mm_23cm_Unkinked_Test9_Wrong/4.45) +30.882)/1.6475; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%convert back to Arduino Output</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force_10mm_23cm_Unkinked_Test9 = (((Force_10mm_23cm_Unkinked_Test9_A0)*0.1535)-1.963)*4.45; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%corrected Force output (N)</t>
+    </r>
+  </si>
+  <si>
+    <t>%% 10mm 27cm (Force and Pressure Pin Switched)</t>
+  </si>
+  <si>
+    <r>
+      <t>Data_10mm_27cm_Unkinked_Test9 = csvread(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFAA04F9"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>'10mm_27cm_Unkinked_Test9.csv'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force_10mm_27cm_Unkinked_Test9_Wrong = Data_10mm_27cm_Unkinked_Test9(:,1); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%this is actual pressure A0,going thru force eq)</t>
+    </r>
+  </si>
+  <si>
+    <t>Pressure_10mm_27cm_Unkinked_Test9_Wrong = Data_10mm_27cm_Unkinked_Test9(:,2);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Force_10mm_27cm_Unkinked_Test9_A0 = (Pressure_10mm_27cm_Unkinked_Test9_Wrong +18.609)/0.7654; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% This is Force A0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pressure_10mm_27cm_Unkinked_Test9_A0 = ((Force_10mm_27cm_Unkinked_Test9_Wrong/4.45)+1.963)/0.1535;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF028009"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>% This is pressure A0</t>
+    </r>
+  </si>
+  <si>
+    <t>Pressure_10mm_27cm_Unkinked_Test9 = (Pressure_10mm_27cm_Unkinked_Test9_A0*0.7654) -18.609;</t>
+  </si>
+  <si>
+    <t>Force_10mm_27cm_Unkinked_Test9 = ((Force_10mm_27cm_Unkinked_Test9_A0*0.1535)-1.963)*4.45;</t>
+  </si>
+  <si>
+    <t>Time_10mm_27cm_Unkinked_Test9 = Data_10mm_27cm_Unkinked_Test9(:,3);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,13 +359,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAA04F9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF028009"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -320,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -339,6 +540,22 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,6 +571,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1320,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769A8FCF-F3D2-4A1E-8273-1649DF2EF169}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I20"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1333,36 +1554,40 @@
     <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="26.109375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="119.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="13"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="3"/>
+      <c r="J1" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -1388,8 +1613,11 @@
         <v>40</v>
       </c>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -1403,8 +1631,11 @@
         <v>40</v>
       </c>
       <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1418,8 +1649,11 @@
         <v>41</v>
       </c>
       <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J4" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -1433,262 +1667,355 @@
         <v>40</v>
       </c>
       <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
-        <v>44564</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="5">
-        <v>21.9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F6" s="5">
-        <v>3.3</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="4"/>
+      <c r="J5" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
+        <v>44564</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2">
-        <v>28.1</v>
+        <v>21.9</v>
       </c>
       <c r="E9" s="2">
-        <v>24</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F9" s="2">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>39</v>
+      <c r="H9" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>12</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5">
-        <v>22</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="J10" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
-        <v>33</v>
+      <c r="I11" s="9"/>
+      <c r="J11" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="5">
+        <v>28.1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>24</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
-        <v>44571</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2">
-        <v>29.8</v>
-      </c>
-      <c r="D13" s="2">
-        <v>28.1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>23.6</v>
-      </c>
-      <c r="F13" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>43</v>
+        <v>22</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>44571</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="2">
+        <v>29.8</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>23.6</v>
+      </c>
+      <c r="F16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>41</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
+        <v>17</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2">
-        <v>27.6</v>
-      </c>
-      <c r="D17" s="2">
-        <v>25.7</v>
-      </c>
-      <c r="E17" s="2">
-        <v>22.1</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
+    <row r="19" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>41</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="2">
+        <v>27.6</v>
+      </c>
+      <c r="D20" s="2">
+        <v>25.7</v>
+      </c>
+      <c r="E20" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>7</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>15</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
+      <c r="I22" s="6"/>
+      <c r="J22" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8">
         <v>31</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="I20" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J24" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J26" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1697,13 +2024,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64191C26-4904-4A59-AB7C-C2CD2B730722}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
@@ -1934,21 +2264,148 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="14">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="10">
         <v>20</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="9"/>
+      <c r="I12" s="6"/>
       <c r="J12" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>44594</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="D13" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>29.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10.1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5">
+        <v>35</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>46</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>69</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5">
+        <v>12.4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E17" s="5">
+        <v>7.4</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Documents\GitHub\Muscle-Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB602D44-E200-4C57-9BCD-F03F1B1685E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D77F8-87D1-45FD-8C3B-CE51EA0718E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec8 - 10mm13cm" sheetId="1" r:id="rId1"/>
@@ -571,10 +571,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1544,7 +1540,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I8" sqref="A1:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,7 +2023,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/DataCollection/Data Collection Notes.xlsx
+++ b/DataCollection/Data Collection Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lawre\Documents\GitHub\Muscle-Sensory\DataCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0D77F8-87D1-45FD-8C3B-CE51EA0718E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A5AFA0-FA80-4378-A1B8-E232A96C6D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12288" yWindow="-13068" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dec8 - 10mm13cm" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="70">
   <si>
     <t>10mm BPA Data Collection</t>
   </si>
@@ -346,12 +346,21 @@
   <si>
     <t>Time_10mm_27cm_Unkinked_Test9 = Data_10mm_27cm_Unkinked_Test9(:,3);</t>
   </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>40cm</t>
+  </si>
+  <si>
+    <t>15cm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +385,13 @@
       <color rgb="FF028009"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -521,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -556,6 +572,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2023,7 +2040,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2094,7 +2111,9 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="C3" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
@@ -2166,7 +2185,9 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2244,7 +2265,9 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
+      <c r="C11" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -2302,11 +2325,16 @@
         <v>39</v>
       </c>
       <c r="I13" s="3"/>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="C14" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -2317,6 +2345,9 @@
         <v>39</v>
       </c>
       <c r="I14" s="6"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
@@ -2332,6 +2363,9 @@
         <v>39</v>
       </c>
       <c r="I15" s="6"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
@@ -2347,8 +2381,11 @@
         <v>39</v>
       </c>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>44</v>
@@ -2372,11 +2409,16 @@
         <v>39</v>
       </c>
       <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
+      <c r="C18" s="24" t="s">
+        <v>67</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -2387,8 +2429,11 @@
         <v>39</v>
       </c>
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2402,8 +2447,12 @@
         <v>39</v>
       </c>
       <c r="I19" s="9"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>